--- a/SpringBoot-Excel/src/main/resources/excelTemplate/billTemplate.xlsx
+++ b/SpringBoot-Excel/src/main/resources/excelTemplate/billTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7952FF40-00FC-4BF7-A965-9CA71E13ED04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BDAB4-C487-471D-8B72-E65D67B87A07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{{#fe: colList t.name}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>t.paymentDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{#fe: colList t.name}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{v_fe: list t.value}}</t>
+    <t>{{v_fe: colList t.value}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,11 +97,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,47 +396,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="5" customWidth="1"/>
+    <col min="5" max="10" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SpringBoot-Excel/src/main/resources/excelTemplate/billTemplate.xlsx
+++ b/SpringBoot-Excel/src/main/resources/excelTemplate/billTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BDAB4-C487-471D-8B72-E65D67B87A07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B79D7-019C-48FB-BDE2-6629605B4F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2484" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,11 +42,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>t.paymentDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{{#fe: colList t.name}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.paymentDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,22 +396,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="5" customWidth="1"/>
-    <col min="5" max="10" width="9" style="5"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="5" customWidth="1"/>
+    <col min="5" max="9" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -441,9 +441,8 @@
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -451,11 +450,12 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -468,7 +468,6 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SpringBoot-Excel/src/main/resources/excelTemplate/billTemplate.xlsx
+++ b/SpringBoot-Excel/src/main/resources/excelTemplate/billTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B79D7-019C-48FB-BDE2-6629605B4F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579928E5-F413-415D-A500-6CE4B3B44690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2484" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -97,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -116,6 +117,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -399,19 +403,19 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="5" customWidth="1"/>
     <col min="5" max="9" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -442,14 +446,14 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">

--- a/SpringBoot-Excel/src/main/resources/excelTemplate/billTemplate.xlsx
+++ b/SpringBoot-Excel/src/main/resources/excelTemplate/billTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579928E5-F413-415D-A500-6CE4B3B44690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC6854D-A702-42E5-81D9-D326ECF88D68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -412,7 +412,8 @@
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="5" customWidth="1"/>
-    <col min="5" max="9" width="9" style="5"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="9" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -428,7 +429,6 @@
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
